--- a/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.95</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>9.70</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000523</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.84</t>
+          <t>20.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005520</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>89.33</t>
+          <t>21.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011082</t>
+          <t>000523</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国投瑞银医疗保健混合C</t>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>83.84</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.44</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>011082</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>国投瑞银医疗保健混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001607</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大策略优选混合A</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>8</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001608</t>
+          <t>005520</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>英大策略优选混合C</t>
+          <t>国投瑞银创新医疗灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>001607</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>英大策略优选混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>59.88</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,15 +946,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -846,26 +976,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1567</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>17.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>59.63</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>8.77</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5733</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.70</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2592</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>005674</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>诺德消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.74</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>004351</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.54</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.54</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5457</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3706</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1541</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5059</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1542</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1657,4 +1658,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2862</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.54</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.89</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.04</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3467</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>11</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1875,7 +1876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1886,17 +1887,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1906,14 +1927,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.43</v>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1233</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1922,14 +1965,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.54</v>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2516</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1938,14 +2003,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.89</v>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1720</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1954,14 +2041,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7.04</v>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7480</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +2079,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>59.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>11</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.66</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603368-柳药股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,471 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2679</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚小盘价值股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>20.71</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.9882</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.43</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007497</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中庚价值灵动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.85</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>59.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6125</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.54</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000523</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健行业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2619</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.89</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011082</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银医疗保健混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>83.84</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.44</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2619</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.04</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0710</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005520</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银创新医疗灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.33</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0629</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0628</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0368</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.66</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -930,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -981,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.79</t>
+          <t>40.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>93.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.70</t>
+          <t>5.18</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1567</t>
+          <t>2.1233</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1019,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.97</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.74</t>
+          <t>5.14</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.9202</t>
+          <t>1.2516</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1057,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17.94</t>
+          <t>63.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>59.63</t>
+          <t>93.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5733</t>
+          <t>1.1720</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1095,36 +753,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29.42</t>
+          <t>36.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.2592</t>
+          <t>0.7480</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1133,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>59.84</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0796</t>
+          <t>0.0748</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1171,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>004913</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>中银证券聚瑞混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>32.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.46</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0339</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1209,74 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>004914</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>中银证券聚瑞混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.54</t>
+          <t>32.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0103</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007776</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇安量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.54</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1311,7 +931,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1341,36 +961,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23.03</t>
+          <t>48.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>93.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8217</t>
+          <t>2.2862</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1379,36 +999,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.74</t>
+          <t>36.49</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>94.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5457</t>
+          <t>1.7552</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1427,26 +1047,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.83</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.86</t>
+          <t>83.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.58</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3706</t>
+          <t>1.3467</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1455,36 +1075,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>002938</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>中银证券健康产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>32.88</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>87.81</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1541</t>
+          <t>0.0370</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1689,7 +1309,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1719,36 +1339,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>48.03</t>
+          <t>23.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.96</t>
+          <t>92.47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2862</t>
+          <t>1.8217</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1757,36 +1377,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.49</t>
+          <t>31.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.41</t>
+          <t>92.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.7552</t>
+          <t>1.5457</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1805,26 +1425,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>26.72</t>
+          <t>20.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.04</t>
+          <t>78.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>6.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.3467</t>
+          <t>1.3706</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1833,36 +1453,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>32.88</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.81</t>
+          <t>92.01</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>1.1541</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1876,7 +1496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1897,7 +1517,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1927,36 +1547,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚小盘价值股票</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.99</t>
+          <t>24.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.10</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.18</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.1233</t>
+          <t>2.1567</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1965,36 +1585,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007497</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中庚价值灵动灵活配置混合</t>
+          <t>中庚小盘价值股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>21.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.42</t>
+          <t>93.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>8.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2516</t>
+          <t>1.9202</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2003,36 +1623,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011174</t>
+          <t>007497</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中庚价值品质一年持有期混合</t>
+          <t>中庚价值灵动灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>63.01</t>
+          <t>17.94</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>59.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>8.77</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1720</t>
+          <t>1.5733</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2041,36 +1661,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>011174</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>中庚价值品质一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>36.49</t>
+          <t>29.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>88.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7480</t>
+          <t>1.2592</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2079,36 +1699,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002938</t>
+          <t>005674</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券健康产业灵活配置混合</t>
+          <t>诺德消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>59.84</t>
+          <t>87.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0748</t>
+          <t>0.0796</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2117,36 +1737,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004913</t>
+          <t>004351</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合A</t>
+          <t>汇丰晋信珠三角区域发展混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>32.71</t>
+          <t>94.29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -2155,36 +1775,74 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004914</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银证券聚瑞混合C</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32.71</t>
+          <t>93.54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0007</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2198,128 +1856,470 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2679</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>59.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>5.37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.43</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>11</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.66</v>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>